--- a/quizsheets/dsaide_evolutionarydynamics.xlsx
+++ b/quizsheets/dsaide_evolutionarydynamics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,17 +397,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T2R1</t>
+          <t>T1R1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The average number of susceptibles left</t>
+          <t>Average number of susceptible at end of simulation</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -424,17 +424,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>T3R1</t>
+          <t>T2R1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The average number of susceptibles at the end (_f_ = 0)</t>
+          <t>Number of averted infections going from f=0.25 to f=0.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -451,17 +451,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>T3R2</t>
+          <t>T2R2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The average number of susceptibles at the end (_f_ = 0.25)</t>
+          <t>Number of averted infections going from f=0 to f=0.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -478,17 +478,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>T3R3</t>
+          <t>T2R3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The average number of susceptibles at the end (_f_ = 0.5)</t>
+          <t>Number of averted infections going from f=0.5 to f=1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -510,12 +510,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>T3R4</t>
+          <t>T3R1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The average number of susceptibles at the end (_f_ = 0.75)</t>
+          <t>Number of averted infections going from f=0.25 to f=0.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>T3R5</t>
+          <t>T3R2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The average number of susceptibles at the end (_f_ = 1)</t>
+          <t>Number of averted infections going from f=0 to f=0.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -559,17 +559,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>T4R1</t>
+          <t>T3R3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The average number of susceptibles at the end (_f_ = 0)</t>
+          <t>Number of averted infections going from f=0.5 to f=1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>T4R2</t>
+          <t>T4R1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The average number of susceptibles at the end (_f_ = 0.25)</t>
+          <t>Number of averted infections going from f=0.25 to f=0.75</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Report the rounded integer</t>
+          <t>Report the rounded integer. Expect to get some negative values.</t>
         </is>
       </c>
     </row>
@@ -618,17 +618,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>T4R3</t>
+          <t>T4R2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The average number of susceptibles at the end (_f_ = 0.5)</t>
+          <t>Number of averted infections going from f=0 to f=0.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Report the rounded integer</t>
+          <t>Report the rounded integer. Expect to get some negative values.</t>
         </is>
       </c>
     </row>
@@ -645,17 +645,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>T4R4</t>
+          <t>T4R3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The average number of susceptibles at the end (_f_ = 0.75)</t>
+          <t>Number of averted infections going from f=0.5 to f=1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Report the rounded integer</t>
+          <t>Report the rounded integer. Expect to get some negative values.</t>
         </is>
       </c>
     </row>
@@ -667,157 +667,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>T4R5</t>
+          <t>T5R1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The average number of susceptibles at the end (_f_ = 1)</t>
+          <t>The treatment level f for which you get the lowest number of total infections</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Report the rounded integer</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>dsaide_evolutionarydynamics</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>T5R1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>The average number of susceptibles at the end (_f_ = 0)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Report the rounded integer</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>dsaide_evolutionarydynamics</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>T5R2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>The average number of susceptibles at the end (_f_ = 0.25)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Report the rounded integer</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>dsaide_evolutionarydynamics</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>T5R3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>The average number of susceptibles at the end (_f_ = 0.5)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Report the rounded integer</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>dsaide_evolutionarydynamics</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>T5R4</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>The average number of susceptibles at the end (_f_ = 0.75)</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Report the rounded integer</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>dsaide_evolutionarydynamics</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>T5R5</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>The average number of susceptibles at the end (_f_ = 1)</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Report the rounded integer</t>
+          <t>Report to two decimal places</t>
         </is>
       </c>
     </row>
